--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3252,28 +3252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1422.607758080208</v>
+        <v>1804.258602397308</v>
       </c>
       <c r="AB2" t="n">
-        <v>1946.474695630176</v>
+        <v>2468.66621807177</v>
       </c>
       <c r="AC2" t="n">
-        <v>1760.705882573624</v>
+        <v>2233.060179013798</v>
       </c>
       <c r="AD2" t="n">
-        <v>1422607.758080208</v>
+        <v>1804258.602397308</v>
       </c>
       <c r="AE2" t="n">
-        <v>1946474.695630176</v>
+        <v>2468666.21807177</v>
       </c>
       <c r="AF2" t="n">
         <v>2.038134617175214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1760705.882573624</v>
+        <v>2233060.179013798</v>
       </c>
     </row>
     <row r="3">
@@ -3358,28 +3358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1045.065109203646</v>
+        <v>1338.653427506392</v>
       </c>
       <c r="AB3" t="n">
-        <v>1429.904187431118</v>
+        <v>1831.604676735417</v>
       </c>
       <c r="AC3" t="n">
-        <v>1293.436138665823</v>
+        <v>1656.798897061098</v>
       </c>
       <c r="AD3" t="n">
-        <v>1045065.109203646</v>
+        <v>1338653.427506392</v>
       </c>
       <c r="AE3" t="n">
-        <v>1429904.187431118</v>
+        <v>1831604.676735417</v>
       </c>
       <c r="AF3" t="n">
         <v>2.613346989246074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.05208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1293436.138665823</v>
+        <v>1656798.897061098</v>
       </c>
     </row>
     <row r="4">
@@ -3464,28 +3464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>938.6313619438281</v>
+        <v>1212.608472287096</v>
       </c>
       <c r="AB4" t="n">
-        <v>1284.2768389047</v>
+        <v>1659.144408293409</v>
       </c>
       <c r="AC4" t="n">
-        <v>1161.707259893499</v>
+        <v>1500.797994589688</v>
       </c>
       <c r="AD4" t="n">
-        <v>938631.3619438281</v>
+        <v>1212608.472287097</v>
       </c>
       <c r="AE4" t="n">
-        <v>1284276.8389047</v>
+        <v>1659144.408293409</v>
       </c>
       <c r="AF4" t="n">
         <v>2.841587690527753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1161707.259893499</v>
+        <v>1500797.994589688</v>
       </c>
     </row>
     <row r="5">
@@ -3570,28 +3570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>879.3459870840624</v>
+        <v>1153.322086397474</v>
       </c>
       <c r="AB5" t="n">
-        <v>1203.159973535421</v>
+        <v>1578.026159588476</v>
       </c>
       <c r="AC5" t="n">
-        <v>1088.332074306828</v>
+        <v>1427.421557690977</v>
       </c>
       <c r="AD5" t="n">
-        <v>879345.9870840623</v>
+        <v>1153322.086397474</v>
       </c>
       <c r="AE5" t="n">
-        <v>1203159.973535421</v>
+        <v>1578026.159588476</v>
       </c>
       <c r="AF5" t="n">
         <v>2.967249655717164e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1088332.074306828</v>
+        <v>1427421.557690977</v>
       </c>
     </row>
     <row r="6">
@@ -3676,28 +3676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>853.0528553695867</v>
+        <v>1117.27459883143</v>
       </c>
       <c r="AB6" t="n">
-        <v>1167.184550752571</v>
+        <v>1528.704396797703</v>
       </c>
       <c r="AC6" t="n">
-        <v>1055.790095382551</v>
+        <v>1382.806994717426</v>
       </c>
       <c r="AD6" t="n">
-        <v>853052.8553695867</v>
+        <v>1117274.598831431</v>
       </c>
       <c r="AE6" t="n">
-        <v>1167184.550752571</v>
+        <v>1528704.396797703</v>
       </c>
       <c r="AF6" t="n">
         <v>3.032401015127118e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.77083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1055790.095382551</v>
+        <v>1382806.994717426</v>
       </c>
     </row>
     <row r="7">
@@ -3782,28 +3782,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>827.3822165248431</v>
+        <v>1081.84960413512</v>
       </c>
       <c r="AB7" t="n">
-        <v>1132.060850176535</v>
+        <v>1480.234356213744</v>
       </c>
       <c r="AC7" t="n">
-        <v>1024.018551493069</v>
+        <v>1338.96286677867</v>
       </c>
       <c r="AD7" t="n">
-        <v>827382.2165248431</v>
+        <v>1081849.60413512</v>
       </c>
       <c r="AE7" t="n">
-        <v>1132060.850176536</v>
+        <v>1480234.356213744</v>
       </c>
       <c r="AF7" t="n">
         <v>3.088632484442092e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.80729166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1024018.551493069</v>
+        <v>1338962.86677867</v>
       </c>
     </row>
     <row r="8">
@@ -3888,28 +3888,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>814.3072715336242</v>
+        <v>1058.952983484628</v>
       </c>
       <c r="AB8" t="n">
-        <v>1114.171133613687</v>
+        <v>1448.90618971213</v>
       </c>
       <c r="AC8" t="n">
-        <v>1007.836204370603</v>
+        <v>1310.624616518613</v>
       </c>
       <c r="AD8" t="n">
-        <v>814307.2715336242</v>
+        <v>1058952.983484628</v>
       </c>
       <c r="AE8" t="n">
-        <v>1114171.133613687</v>
+        <v>1448906.18971213</v>
       </c>
       <c r="AF8" t="n">
         <v>3.128470642231157e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1007836.204370603</v>
+        <v>1310624.616518613</v>
       </c>
     </row>
     <row r="9">
@@ -3994,28 +3994,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>792.9844896639136</v>
+        <v>1047.417711855409</v>
       </c>
       <c r="AB9" t="n">
-        <v>1084.996362764804</v>
+        <v>1433.123122168764</v>
       </c>
       <c r="AC9" t="n">
-        <v>981.4458327044896</v>
+        <v>1296.347862789911</v>
       </c>
       <c r="AD9" t="n">
-        <v>792984.4896639136</v>
+        <v>1047417.711855409</v>
       </c>
       <c r="AE9" t="n">
-        <v>1084996.362764804</v>
+        <v>1433123.122168764</v>
       </c>
       <c r="AF9" t="n">
         <v>3.156315164014134e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.73958333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>981445.8327044896</v>
+        <v>1296347.862789911</v>
       </c>
     </row>
     <row r="10">
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>783.3074128882997</v>
+        <v>1027.918959420523</v>
       </c>
       <c r="AB10" t="n">
-        <v>1071.755759397912</v>
+        <v>1406.444068863107</v>
       </c>
       <c r="AC10" t="n">
-        <v>969.4688939396303</v>
+        <v>1272.21502088746</v>
       </c>
       <c r="AD10" t="n">
-        <v>783307.4128882997</v>
+        <v>1027918.959420523</v>
       </c>
       <c r="AE10" t="n">
-        <v>1071755.759397912</v>
+        <v>1406444.068863107</v>
       </c>
       <c r="AF10" t="n">
         <v>3.17138254593133e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.47916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>969468.8939396304</v>
+        <v>1272215.02088746</v>
       </c>
     </row>
     <row r="11">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>784.248534571297</v>
+        <v>1028.860081103521</v>
       </c>
       <c r="AB11" t="n">
-        <v>1073.043443603948</v>
+        <v>1407.731753069143</v>
       </c>
       <c r="AC11" t="n">
-        <v>970.6336833723179</v>
+        <v>1273.379810320147</v>
       </c>
       <c r="AD11" t="n">
-        <v>784248.534571297</v>
+        <v>1028860.08110352</v>
       </c>
       <c r="AE11" t="n">
-        <v>1073043.443603948</v>
+        <v>1407731.753069143</v>
       </c>
       <c r="AF11" t="n">
         <v>3.17138254593133e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.47916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>970633.6833723179</v>
+        <v>1273379.810320148</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1174.817558140007</v>
+        <v>1523.214831287557</v>
       </c>
       <c r="AB2" t="n">
-        <v>1607.437212339895</v>
+        <v>2084.129731663289</v>
       </c>
       <c r="AC2" t="n">
-        <v>1454.025660846472</v>
+        <v>1885.223315167794</v>
       </c>
       <c r="AD2" t="n">
-        <v>1174817.558140007</v>
+        <v>1523214.831287557</v>
       </c>
       <c r="AE2" t="n">
-        <v>1607437.212339895</v>
+        <v>2084129.731663289</v>
       </c>
       <c r="AF2" t="n">
         <v>2.489789675320382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1454025.660846472</v>
+        <v>1885223.315167794</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>915.9255642731893</v>
+        <v>1196.525838981059</v>
       </c>
       <c r="AB3" t="n">
-        <v>1253.209764822635</v>
+        <v>1637.139439888382</v>
       </c>
       <c r="AC3" t="n">
-        <v>1133.605183758915</v>
+        <v>1480.893149485069</v>
       </c>
       <c r="AD3" t="n">
-        <v>915925.5642731893</v>
+        <v>1196525.838981058</v>
       </c>
       <c r="AE3" t="n">
-        <v>1253209.764822635</v>
+        <v>1637139.439888381</v>
       </c>
       <c r="AF3" t="n">
         <v>3.05105573085347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.27604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1133605.183758914</v>
+        <v>1480893.149485069</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>835.9786442108385</v>
+        <v>1097.319305844977</v>
       </c>
       <c r="AB4" t="n">
-        <v>1143.822861784138</v>
+        <v>1501.400684568243</v>
       </c>
       <c r="AC4" t="n">
-        <v>1034.658013220928</v>
+        <v>1358.109110462145</v>
       </c>
       <c r="AD4" t="n">
-        <v>835978.6442108385</v>
+        <v>1097319.305844977</v>
       </c>
       <c r="AE4" t="n">
-        <v>1143822.861784138</v>
+        <v>1501400.684568243</v>
       </c>
       <c r="AF4" t="n">
         <v>3.256477392583652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1034658.013220928</v>
+        <v>1358109.110462145</v>
       </c>
     </row>
     <row r="5">
@@ -4821,28 +4821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>803.7102452704755</v>
+        <v>1055.303037946801</v>
       </c>
       <c r="AB5" t="n">
-        <v>1099.671814772643</v>
+        <v>1443.912173203042</v>
       </c>
       <c r="AC5" t="n">
-        <v>994.7206801698271</v>
+        <v>1306.107221936006</v>
       </c>
       <c r="AD5" t="n">
-        <v>803710.2452704755</v>
+        <v>1055303.037946801</v>
       </c>
       <c r="AE5" t="n">
-        <v>1099671.814772643</v>
+        <v>1443912.173203042</v>
       </c>
       <c r="AF5" t="n">
         <v>3.363177953957466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.06770833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>994720.6801698271</v>
+        <v>1306107.221936006</v>
       </c>
     </row>
     <row r="6">
@@ -4927,28 +4927,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>764.1265731566151</v>
+        <v>1015.752520221865</v>
       </c>
       <c r="AB6" t="n">
-        <v>1045.511688278094</v>
+        <v>1389.797410006087</v>
       </c>
       <c r="AC6" t="n">
-        <v>945.7295201337029</v>
+        <v>1257.157095788021</v>
       </c>
       <c r="AD6" t="n">
-        <v>764126.5731566151</v>
+        <v>1015752.520221865</v>
       </c>
       <c r="AE6" t="n">
-        <v>1045511.688278094</v>
+        <v>1389797.410006087</v>
       </c>
       <c r="AF6" t="n">
         <v>3.443500131802526e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.86979166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>945729.5201337029</v>
+        <v>1257157.095788021</v>
       </c>
     </row>
     <row r="7">
@@ -5033,28 +5033,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>748.9290696130852</v>
+        <v>990.8413131393027</v>
       </c>
       <c r="AB7" t="n">
-        <v>1024.717793463299</v>
+        <v>1355.712797470833</v>
       </c>
       <c r="AC7" t="n">
-        <v>926.9201654556173</v>
+        <v>1226.325470835078</v>
       </c>
       <c r="AD7" t="n">
-        <v>748929.0696130851</v>
+        <v>990841.3131393027</v>
       </c>
       <c r="AE7" t="n">
-        <v>1024717.793463299</v>
+        <v>1355712.797470833</v>
       </c>
       <c r="AF7" t="n">
         <v>3.491640681742504e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.19270833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>926920.1654556172</v>
+        <v>1226325.470835078</v>
       </c>
     </row>
     <row r="8">
@@ -5139,28 +5139,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>745.0652823124509</v>
+        <v>986.9775258386687</v>
       </c>
       <c r="AB8" t="n">
-        <v>1019.431189220306</v>
+        <v>1350.42619322784</v>
       </c>
       <c r="AC8" t="n">
-        <v>922.1381073017798</v>
+        <v>1221.543412681241</v>
       </c>
       <c r="AD8" t="n">
-        <v>745065.2823124509</v>
+        <v>986977.5258386687</v>
       </c>
       <c r="AE8" t="n">
-        <v>1019431.189220306</v>
+        <v>1350426.19322784</v>
       </c>
       <c r="AF8" t="n">
         <v>3.500015818512884e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>922138.1073017798</v>
+        <v>1221543.412681241</v>
       </c>
     </row>
   </sheetData>
@@ -5436,28 +5436,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>751.1678222456018</v>
+        <v>1012.985660312678</v>
       </c>
       <c r="AB2" t="n">
-        <v>1027.780953581904</v>
+        <v>1386.011670213094</v>
       </c>
       <c r="AC2" t="n">
-        <v>929.6909818716748</v>
+        <v>1253.732661687553</v>
       </c>
       <c r="AD2" t="n">
-        <v>751167.8222456018</v>
+        <v>1012985.660312678</v>
       </c>
       <c r="AE2" t="n">
-        <v>1027780.953581904</v>
+        <v>1386011.670213094</v>
       </c>
       <c r="AF2" t="n">
         <v>4.415827345773734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>929690.9818716748</v>
+        <v>1253732.661687552</v>
       </c>
     </row>
     <row r="3">
@@ -5542,28 +5542,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>655.8369750024892</v>
+        <v>899.0111693978171</v>
       </c>
       <c r="AB3" t="n">
-        <v>897.3450826837206</v>
+        <v>1230.066743543714</v>
       </c>
       <c r="AC3" t="n">
-        <v>811.7037274241192</v>
+        <v>1112.670899949419</v>
       </c>
       <c r="AD3" t="n">
-        <v>655836.9750024892</v>
+        <v>899011.1693978171</v>
       </c>
       <c r="AE3" t="n">
-        <v>897345.0826837206</v>
+        <v>1230066.743543714</v>
       </c>
       <c r="AF3" t="n">
         <v>4.839056055822252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>811703.7274241191</v>
+        <v>1112670.899949419</v>
       </c>
     </row>
     <row r="4">
@@ -5648,28 +5648,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>656.5393151133743</v>
+        <v>890.3248733800522</v>
       </c>
       <c r="AB4" t="n">
-        <v>898.3060554084925</v>
+        <v>1218.181770119874</v>
       </c>
       <c r="AC4" t="n">
-        <v>812.5729862607726</v>
+        <v>1101.920211708485</v>
       </c>
       <c r="AD4" t="n">
-        <v>656539.3151133743</v>
+        <v>890324.8733800522</v>
       </c>
       <c r="AE4" t="n">
-        <v>898306.0554084926</v>
+        <v>1218181.770119874</v>
       </c>
       <c r="AF4" t="n">
         <v>4.847432265612252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>812572.9862607726</v>
+        <v>1101920.211708485</v>
       </c>
     </row>
   </sheetData>
@@ -5945,28 +5945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>880.750992141983</v>
+        <v>1174.608169868486</v>
       </c>
       <c r="AB2" t="n">
-        <v>1205.082363440117</v>
+        <v>1607.150718069242</v>
       </c>
       <c r="AC2" t="n">
-        <v>1090.070994017111</v>
+        <v>1453.766509186912</v>
       </c>
       <c r="AD2" t="n">
-        <v>880750.992141983</v>
+        <v>1174608.169868486</v>
       </c>
       <c r="AE2" t="n">
-        <v>1205082.363440117</v>
+        <v>1607150.718069242</v>
       </c>
       <c r="AF2" t="n">
         <v>3.527415038347013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1090070.994017111</v>
+        <v>1453766.509186912</v>
       </c>
     </row>
     <row r="3">
@@ -6051,28 +6051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>739.9529737160789</v>
+        <v>986.3983118300446</v>
       </c>
       <c r="AB3" t="n">
-        <v>1012.436303059613</v>
+        <v>1349.633687068123</v>
       </c>
       <c r="AC3" t="n">
-        <v>915.8108032588782</v>
+        <v>1220.826542197117</v>
       </c>
       <c r="AD3" t="n">
-        <v>739952.9737160789</v>
+        <v>986398.3118300446</v>
       </c>
       <c r="AE3" t="n">
-        <v>1012436.303059613</v>
+        <v>1349633.687068122</v>
       </c>
       <c r="AF3" t="n">
         <v>4.040361702266452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.38020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>915810.8032588782</v>
+        <v>1220826.542197117</v>
       </c>
     </row>
     <row r="4">
@@ -6157,28 +6157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>691.3787138889437</v>
+        <v>928.3414818744305</v>
       </c>
       <c r="AB4" t="n">
-        <v>945.9748578190242</v>
+        <v>1270.19777103628</v>
       </c>
       <c r="AC4" t="n">
-        <v>855.6923450728273</v>
+        <v>1148.971878502345</v>
       </c>
       <c r="AD4" t="n">
-        <v>691378.7138889437</v>
+        <v>928341.4818744306</v>
       </c>
       <c r="AE4" t="n">
-        <v>945974.8578190242</v>
+        <v>1270197.77103628</v>
       </c>
       <c r="AF4" t="n">
         <v>4.217800594867022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>855692.3450728273</v>
+        <v>1148971.878502345</v>
       </c>
     </row>
     <row r="5">
@@ -6263,28 +6263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>688.9880227995276</v>
+        <v>925.9507907850145</v>
       </c>
       <c r="AB5" t="n">
-        <v>942.7038088006381</v>
+        <v>1266.926722017894</v>
       </c>
       <c r="AC5" t="n">
-        <v>852.7334803818097</v>
+        <v>1146.013013811327</v>
       </c>
       <c r="AD5" t="n">
-        <v>688988.0227995276</v>
+        <v>925950.7907850145</v>
       </c>
       <c r="AE5" t="n">
-        <v>942703.8088006381</v>
+        <v>1266926.722017894</v>
       </c>
       <c r="AF5" t="n">
         <v>4.2312719213942e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>852733.4803818098</v>
+        <v>1146013.013811328</v>
       </c>
     </row>
   </sheetData>
@@ -6560,28 +6560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>657.3954956138894</v>
+        <v>897.8263333580106</v>
       </c>
       <c r="AB2" t="n">
-        <v>899.4775193413151</v>
+        <v>1228.445598602774</v>
       </c>
       <c r="AC2" t="n">
-        <v>813.6326473200064</v>
+        <v>1111.204474806351</v>
       </c>
       <c r="AD2" t="n">
-        <v>657395.4956138893</v>
+        <v>897826.3333580106</v>
       </c>
       <c r="AE2" t="n">
-        <v>899477.5193413151</v>
+        <v>1228445.598602774</v>
       </c>
       <c r="AF2" t="n">
         <v>5.367787033805278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.14583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>813632.6473200064</v>
+        <v>1111204.474806351</v>
       </c>
     </row>
     <row r="3">
@@ -6666,28 +6666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>640.2253299683058</v>
+        <v>880.6220022936466</v>
       </c>
       <c r="AB3" t="n">
-        <v>875.9845412107809</v>
+        <v>1204.905873838992</v>
       </c>
       <c r="AC3" t="n">
-        <v>792.3818060496485</v>
+        <v>1089.911348335813</v>
       </c>
       <c r="AD3" t="n">
-        <v>640225.3299683058</v>
+        <v>880622.0022936466</v>
       </c>
       <c r="AE3" t="n">
-        <v>875984.5412107809</v>
+        <v>1204905.873838992</v>
       </c>
       <c r="AF3" t="n">
         <v>5.466571605162943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>792381.8060496486</v>
+        <v>1089911.348335813</v>
       </c>
     </row>
   </sheetData>
@@ -6963,28 +6963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1233.073873285515</v>
+        <v>1592.201738885763</v>
       </c>
       <c r="AB2" t="n">
-        <v>1687.146072809215</v>
+        <v>2178.520662126719</v>
       </c>
       <c r="AC2" t="n">
-        <v>1526.127219544688</v>
+        <v>1970.605707706297</v>
       </c>
       <c r="AD2" t="n">
-        <v>1233073.873285515</v>
+        <v>1592201.738885763</v>
       </c>
       <c r="AE2" t="n">
-        <v>1687146.072809215</v>
+        <v>2178520.662126719</v>
       </c>
       <c r="AF2" t="n">
         <v>2.360849471240424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1526127.219544688</v>
+        <v>1970605.707706297</v>
       </c>
     </row>
     <row r="3">
@@ -7069,28 +7069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.9864294660573</v>
+        <v>1230.443876505549</v>
       </c>
       <c r="AB3" t="n">
-        <v>1298.445099121951</v>
+        <v>1683.547595187596</v>
       </c>
       <c r="AC3" t="n">
-        <v>1174.523321240894</v>
+        <v>1522.872175576782</v>
       </c>
       <c r="AD3" t="n">
-        <v>948986.4294660573</v>
+        <v>1230443.876505549</v>
       </c>
       <c r="AE3" t="n">
-        <v>1298445.099121951</v>
+        <v>1683547.595187597</v>
       </c>
       <c r="AF3" t="n">
         <v>2.924065809143062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.31770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1174523.321240894</v>
+        <v>1522872.175576782</v>
       </c>
     </row>
     <row r="4">
@@ -7175,28 +7175,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>863.9877223316562</v>
+        <v>1126.027311973494</v>
       </c>
       <c r="AB4" t="n">
-        <v>1182.146118142358</v>
+        <v>1540.680245061125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1069.323751779348</v>
+        <v>1393.639884830795</v>
       </c>
       <c r="AD4" t="n">
-        <v>863987.7223316561</v>
+        <v>1126027.311973494</v>
       </c>
       <c r="AE4" t="n">
-        <v>1182146.118142358</v>
+        <v>1540680.245061125</v>
       </c>
       <c r="AF4" t="n">
         <v>3.141514164464476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1069323.751779348</v>
+        <v>1393639.884830795</v>
       </c>
     </row>
     <row r="5">
@@ -7281,28 +7281,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>822.3494476856984</v>
+        <v>1084.42219171646</v>
       </c>
       <c r="AB5" t="n">
-        <v>1125.174793820727</v>
+        <v>1483.754284037087</v>
       </c>
       <c r="AC5" t="n">
-        <v>1017.789690691217</v>
+        <v>1342.146857630803</v>
       </c>
       <c r="AD5" t="n">
-        <v>822349.4476856984</v>
+        <v>1084422.19171646</v>
       </c>
       <c r="AE5" t="n">
-        <v>1125174.793820726</v>
+        <v>1483754.284037087</v>
       </c>
       <c r="AF5" t="n">
         <v>3.244864877292588e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1017789.690691217</v>
+        <v>1342146.857630803</v>
       </c>
     </row>
     <row r="6">
@@ -7387,28 +7387,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>792.5927879389874</v>
+        <v>1044.889283463217</v>
       </c>
       <c r="AB6" t="n">
-        <v>1084.460419184099</v>
+        <v>1429.663614896179</v>
       </c>
       <c r="AC6" t="n">
-        <v>980.9610388269259</v>
+        <v>1293.218526035973</v>
       </c>
       <c r="AD6" t="n">
-        <v>792592.7879389874</v>
+        <v>1044889.283463217</v>
       </c>
       <c r="AE6" t="n">
-        <v>1084460.419184099</v>
+        <v>1429663.614896179</v>
       </c>
       <c r="AF6" t="n">
         <v>3.324405027389442e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>980961.0388269259</v>
+        <v>1293218.526035973</v>
       </c>
     </row>
     <row r="7">
@@ -7493,28 +7493,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>767.3479239726769</v>
+        <v>1019.711739304611</v>
       </c>
       <c r="AB7" t="n">
-        <v>1049.919282580598</v>
+        <v>1395.214588223519</v>
       </c>
       <c r="AC7" t="n">
-        <v>949.7164598220727</v>
+        <v>1262.057266119439</v>
       </c>
       <c r="AD7" t="n">
-        <v>767347.9239726769</v>
+        <v>1019711.739304611</v>
       </c>
       <c r="AE7" t="n">
-        <v>1049919.282580598</v>
+        <v>1395214.588223519</v>
       </c>
       <c r="AF7" t="n">
         <v>3.372476622957686e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>949716.4598220726</v>
+        <v>1262057.266119439</v>
       </c>
     </row>
     <row r="8">
@@ -7599,28 +7599,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>755.6155094410767</v>
+        <v>998.2372416852605</v>
       </c>
       <c r="AB8" t="n">
-        <v>1033.866475420864</v>
+        <v>1365.832233192752</v>
       </c>
       <c r="AC8" t="n">
-        <v>935.1957100474071</v>
+        <v>1235.479121814414</v>
       </c>
       <c r="AD8" t="n">
-        <v>755615.5094410767</v>
+        <v>998237.2416852606</v>
       </c>
       <c r="AE8" t="n">
-        <v>1033866.475420864</v>
+        <v>1365832.233192752</v>
       </c>
       <c r="AF8" t="n">
         <v>3.407999408437834e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.16666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>935195.7100474072</v>
+        <v>1235479.121814414</v>
       </c>
     </row>
     <row r="9">
@@ -7705,28 +7705,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>756.4697267799253</v>
+        <v>999.0914590241092</v>
       </c>
       <c r="AB9" t="n">
-        <v>1035.035253269286</v>
+        <v>1367.001011041174</v>
       </c>
       <c r="AC9" t="n">
-        <v>936.2529413783658</v>
+        <v>1236.536353145373</v>
       </c>
       <c r="AD9" t="n">
-        <v>756469.7267799253</v>
+        <v>999091.4590241092</v>
       </c>
       <c r="AE9" t="n">
-        <v>1035035.253269286</v>
+        <v>1367001.011041174</v>
       </c>
       <c r="AF9" t="n">
         <v>3.405747057909201e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.21875</v>
       </c>
       <c r="AH9" t="n">
-        <v>936252.9413783657</v>
+        <v>1236536.353145373</v>
       </c>
     </row>
   </sheetData>
@@ -8002,28 +8002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.3621841096668</v>
+        <v>873.1881763245226</v>
       </c>
       <c r="AB2" t="n">
-        <v>867.9623263832511</v>
+        <v>1194.734585190781</v>
       </c>
       <c r="AC2" t="n">
-        <v>785.125220146009</v>
+        <v>1080.710793200694</v>
       </c>
       <c r="AD2" t="n">
-        <v>634362.1841096669</v>
+        <v>873188.1763245226</v>
       </c>
       <c r="AE2" t="n">
-        <v>867962.3263832511</v>
+        <v>1194734.585190781</v>
       </c>
       <c r="AF2" t="n">
         <v>5.878307523563054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>785125.220146009</v>
+        <v>1080710.793200694</v>
       </c>
     </row>
     <row r="3">
@@ -8108,28 +8108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>636.0605270717505</v>
+        <v>874.8865192866062</v>
       </c>
       <c r="AB3" t="n">
-        <v>870.2860741495775</v>
+        <v>1197.058332957107</v>
       </c>
       <c r="AC3" t="n">
-        <v>787.2271926869178</v>
+        <v>1082.812765741603</v>
       </c>
       <c r="AD3" t="n">
-        <v>636060.5270717505</v>
+        <v>874886.5192866062</v>
       </c>
       <c r="AE3" t="n">
-        <v>870286.0741495775</v>
+        <v>1197058.332957108</v>
       </c>
       <c r="AF3" t="n">
         <v>5.876231116808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.11979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>787227.1926869177</v>
+        <v>1082812.765741603</v>
       </c>
     </row>
   </sheetData>
@@ -8405,28 +8405,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1022.134209620025</v>
+        <v>1338.484523641034</v>
       </c>
       <c r="AB2" t="n">
-        <v>1398.529118980915</v>
+        <v>1831.373575015322</v>
       </c>
       <c r="AC2" t="n">
-        <v>1265.055462713323</v>
+        <v>1656.589851364815</v>
       </c>
       <c r="AD2" t="n">
-        <v>1022134.209620025</v>
+        <v>1338484.523641034</v>
       </c>
       <c r="AE2" t="n">
-        <v>1398529.118980915</v>
+        <v>1831373.575015322</v>
       </c>
       <c r="AF2" t="n">
         <v>2.936766958689504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1265055.462713323</v>
+        <v>1656589.851364815</v>
       </c>
     </row>
     <row r="3">
@@ -8511,28 +8511,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>824.8148169618515</v>
+        <v>1093.222912064896</v>
       </c>
       <c r="AB3" t="n">
-        <v>1128.548020828776</v>
+        <v>1495.795817878197</v>
       </c>
       <c r="AC3" t="n">
-        <v>1020.840981647972</v>
+        <v>1353.039164382516</v>
       </c>
       <c r="AD3" t="n">
-        <v>824814.8169618516</v>
+        <v>1093222.912064895</v>
       </c>
       <c r="AE3" t="n">
-        <v>1128548.020828776</v>
+        <v>1495795.817878197</v>
       </c>
       <c r="AF3" t="n">
         <v>3.465177060473973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.88020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1020840.981647972</v>
+        <v>1353039.164382516</v>
       </c>
     </row>
     <row r="4">
@@ -8617,28 +8617,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>759.7674966925164</v>
+        <v>1018.552982593186</v>
       </c>
       <c r="AB4" t="n">
-        <v>1039.547407551033</v>
+        <v>1393.62912617021</v>
       </c>
       <c r="AC4" t="n">
-        <v>940.334461988312</v>
+        <v>1260.623118339287</v>
       </c>
       <c r="AD4" t="n">
-        <v>759767.4966925164</v>
+        <v>1018552.982593186</v>
       </c>
       <c r="AE4" t="n">
-        <v>1039547.407551033</v>
+        <v>1393629.12617021</v>
       </c>
       <c r="AF4" t="n">
         <v>3.671048332318622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>940334.461988312</v>
+        <v>1260623.118339287</v>
       </c>
     </row>
     <row r="5">
@@ -8723,28 +8723,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>729.5243128161339</v>
+        <v>978.7555203519918</v>
       </c>
       <c r="AB5" t="n">
-        <v>998.1673491362599</v>
+        <v>1339.176482591687</v>
       </c>
       <c r="AC5" t="n">
-        <v>902.9036582713679</v>
+        <v>1211.367358639134</v>
       </c>
       <c r="AD5" t="n">
-        <v>729524.312816134</v>
+        <v>978755.5203519918</v>
       </c>
       <c r="AE5" t="n">
-        <v>998167.3491362599</v>
+        <v>1339176.482591687</v>
       </c>
       <c r="AF5" t="n">
         <v>3.766490569457329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.58333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>902903.6582713679</v>
+        <v>1211367.358639134</v>
       </c>
     </row>
     <row r="6">
@@ -8829,28 +8829,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>718.021965569489</v>
+        <v>957.6315749328301</v>
       </c>
       <c r="AB6" t="n">
-        <v>982.4293301856534</v>
+        <v>1310.27376854649</v>
       </c>
       <c r="AC6" t="n">
-        <v>888.667653760959</v>
+        <v>1185.223079057196</v>
       </c>
       <c r="AD6" t="n">
-        <v>718021.9655694891</v>
+        <v>957631.5749328301</v>
       </c>
       <c r="AE6" t="n">
-        <v>982429.3301856534</v>
+        <v>1310273.76854649</v>
       </c>
       <c r="AF6" t="n">
         <v>3.810303647512737e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.01041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>888667.6537609589</v>
+        <v>1185223.079057196</v>
       </c>
     </row>
     <row r="7">
@@ -8935,28 +8935,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>719.2847202682051</v>
+        <v>958.8943296315462</v>
       </c>
       <c r="AB7" t="n">
-        <v>984.1570868732425</v>
+        <v>1312.001525234079</v>
       </c>
       <c r="AC7" t="n">
-        <v>890.2305157752063</v>
+        <v>1186.785941071443</v>
       </c>
       <c r="AD7" t="n">
-        <v>719284.720268205</v>
+        <v>958894.3296315462</v>
       </c>
       <c r="AE7" t="n">
-        <v>984157.0868732425</v>
+        <v>1312001.525234079</v>
       </c>
       <c r="AF7" t="n">
         <v>3.809586575858803e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.01041666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>890230.5157752063</v>
+        <v>1186785.941071443</v>
       </c>
     </row>
   </sheetData>
@@ -9232,28 +9232,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1130.434635881913</v>
+        <v>1458.470225392045</v>
       </c>
       <c r="AB2" t="n">
-        <v>1546.710540070031</v>
+        <v>1995.543305546628</v>
       </c>
       <c r="AC2" t="n">
-        <v>1399.094656947624</v>
+        <v>1805.091453227877</v>
       </c>
       <c r="AD2" t="n">
-        <v>1130434.635881912</v>
+        <v>1458470.225392045</v>
       </c>
       <c r="AE2" t="n">
-        <v>1546710.540070031</v>
+        <v>1995543.305546628</v>
       </c>
       <c r="AF2" t="n">
         <v>2.62199145717404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1399094.656947624</v>
+        <v>1805091.453227877</v>
       </c>
     </row>
     <row r="3">
@@ -9338,28 +9338,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>884.914992923384</v>
+        <v>1164.626799428806</v>
       </c>
       <c r="AB3" t="n">
-        <v>1210.779733011979</v>
+        <v>1593.493766686685</v>
       </c>
       <c r="AC3" t="n">
-        <v>1095.224614633343</v>
+        <v>1441.412958076655</v>
       </c>
       <c r="AD3" t="n">
-        <v>884914.9929233841</v>
+        <v>1164626.799428806</v>
       </c>
       <c r="AE3" t="n">
-        <v>1210779.733011979</v>
+        <v>1593493.766686685</v>
       </c>
       <c r="AF3" t="n">
         <v>3.179853339306015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.44270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1095224.614633343</v>
+        <v>1441412.958076655</v>
       </c>
     </row>
     <row r="4">
@@ -9444,28 +9444,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>817.9227286876098</v>
+        <v>1078.366519744952</v>
       </c>
       <c r="AB4" t="n">
-        <v>1119.117961594483</v>
+        <v>1475.468646488279</v>
       </c>
       <c r="AC4" t="n">
-        <v>1012.310914031829</v>
+        <v>1334.651989700688</v>
       </c>
       <c r="AD4" t="n">
-        <v>817922.7286876098</v>
+        <v>1078366.519744952</v>
       </c>
       <c r="AE4" t="n">
-        <v>1119117.961594483</v>
+        <v>1475468.646488279</v>
       </c>
       <c r="AF4" t="n">
         <v>3.378644936954839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.16145833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1012310.914031829</v>
+        <v>1334651.989700688</v>
       </c>
     </row>
     <row r="5">
@@ -9550,28 +9550,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>774.7971396883398</v>
+        <v>1025.589840312252</v>
       </c>
       <c r="AB5" t="n">
-        <v>1060.111628158971</v>
+        <v>1403.257265345688</v>
       </c>
       <c r="AC5" t="n">
-        <v>958.9360622434934</v>
+        <v>1269.332361425037</v>
       </c>
       <c r="AD5" t="n">
-        <v>774797.1396883398</v>
+        <v>1025589.840312252</v>
       </c>
       <c r="AE5" t="n">
-        <v>1060111.628158971</v>
+        <v>1403257.265345688</v>
       </c>
       <c r="AF5" t="n">
         <v>3.492423852735456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>958936.0622434934</v>
+        <v>1269332.361425037</v>
       </c>
     </row>
     <row r="6">
@@ -9656,28 +9656,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>747.8846776785615</v>
+        <v>998.7446981101785</v>
       </c>
       <c r="AB6" t="n">
-        <v>1023.288810343164</v>
+        <v>1366.526557460722</v>
       </c>
       <c r="AC6" t="n">
-        <v>925.6275624788769</v>
+        <v>1236.107180748739</v>
       </c>
       <c r="AD6" t="n">
-        <v>747884.6776785615</v>
+        <v>998744.6981101786</v>
       </c>
       <c r="AE6" t="n">
-        <v>1023288.810343164</v>
+        <v>1366526.557460722</v>
       </c>
       <c r="AF6" t="n">
         <v>3.559702997462365e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.50520833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>925627.5624788769</v>
+        <v>1236107.180748739</v>
       </c>
     </row>
     <row r="7">
@@ -9762,28 +9762,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>737.0269347925725</v>
+        <v>978.2027104018359</v>
       </c>
       <c r="AB7" t="n">
-        <v>1008.432767516744</v>
+        <v>1338.42010362963</v>
       </c>
       <c r="AC7" t="n">
-        <v>912.1893595292239</v>
+        <v>1210.683167423631</v>
       </c>
       <c r="AD7" t="n">
-        <v>737026.9347925725</v>
+        <v>978202.710401836</v>
       </c>
       <c r="AE7" t="n">
-        <v>1008432.767516744</v>
+        <v>1338420.10362963</v>
       </c>
       <c r="AF7" t="n">
         <v>3.591447382650413e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>912189.3595292239</v>
+        <v>1210683.167423631</v>
       </c>
     </row>
     <row r="8">
@@ -9868,28 +9868,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>738.1546133498326</v>
+        <v>979.330388959096</v>
       </c>
       <c r="AB8" t="n">
-        <v>1009.975707068454</v>
+        <v>1339.96304318134</v>
       </c>
       <c r="AC8" t="n">
-        <v>913.5850430956481</v>
+        <v>1212.078850990055</v>
       </c>
       <c r="AD8" t="n">
-        <v>738154.6133498326</v>
+        <v>979330.388959096</v>
       </c>
       <c r="AE8" t="n">
-        <v>1009975.707068454</v>
+        <v>1339963.04318134</v>
       </c>
       <c r="AF8" t="n">
         <v>3.592191920469323e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>913585.0430956481</v>
+        <v>1212078.850990055</v>
       </c>
     </row>
   </sheetData>
@@ -10165,19 +10165,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1351.716251292224</v>
+        <v>1732.364319129958</v>
       </c>
       <c r="AB2" t="n">
-        <v>1849.477808530306</v>
+        <v>2370.297287953455</v>
       </c>
       <c r="AC2" t="n">
-        <v>1672.96624224258</v>
+        <v>2144.079441524315</v>
       </c>
       <c r="AD2" t="n">
-        <v>1351716.251292224</v>
+        <v>1732364.319129958</v>
       </c>
       <c r="AE2" t="n">
-        <v>1849477.808530306</v>
+        <v>2370297.287953455</v>
       </c>
       <c r="AF2" t="n">
         <v>2.136796412003981e-06</v>
@@ -10186,7 +10186,7 @@
         <v>75</v>
       </c>
       <c r="AH2" t="n">
-        <v>1672966.24224258</v>
+        <v>2144079.441524315</v>
       </c>
     </row>
     <row r="3">
@@ -10271,28 +10271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1012.681023065319</v>
+        <v>1305.46458714197</v>
       </c>
       <c r="AB3" t="n">
-        <v>1385.59485209161</v>
+        <v>1786.194241160516</v>
       </c>
       <c r="AC3" t="n">
-        <v>1253.355624102575</v>
+        <v>1615.722369723518</v>
       </c>
       <c r="AD3" t="n">
-        <v>1012681.023065319</v>
+        <v>1305464.58714197</v>
       </c>
       <c r="AE3" t="n">
-        <v>1385594.85209161</v>
+        <v>1786194.241160516</v>
       </c>
       <c r="AF3" t="n">
         <v>2.710435923323755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.11458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1253355.624102575</v>
+        <v>1615722.369723518</v>
       </c>
     </row>
     <row r="4">
@@ -10377,28 +10377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>910.6158748629475</v>
+        <v>1183.94108879376</v>
       </c>
       <c r="AB4" t="n">
-        <v>1245.944813524578</v>
+        <v>1619.920429482126</v>
       </c>
       <c r="AC4" t="n">
-        <v>1127.033589216321</v>
+        <v>1465.317497264953</v>
       </c>
       <c r="AD4" t="n">
-        <v>910615.8748629475</v>
+        <v>1183941.08879376</v>
       </c>
       <c r="AE4" t="n">
-        <v>1245944.813524578</v>
+        <v>1619920.429482126</v>
       </c>
       <c r="AF4" t="n">
         <v>2.934526355612355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1127033.589216321</v>
+        <v>1465317.497264953</v>
       </c>
     </row>
     <row r="5">
@@ -10483,28 +10483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>862.0676069828523</v>
+        <v>1125.528500710408</v>
       </c>
       <c r="AB5" t="n">
-        <v>1179.518931612614</v>
+        <v>1539.997749484972</v>
       </c>
       <c r="AC5" t="n">
-        <v>1066.947300244723</v>
+        <v>1393.022525674542</v>
       </c>
       <c r="AD5" t="n">
-        <v>862067.6069828523</v>
+        <v>1125528.500710408</v>
       </c>
       <c r="AE5" t="n">
-        <v>1179518.931612614</v>
+        <v>1539997.749484972</v>
       </c>
       <c r="AF5" t="n">
         <v>3.058815941889942e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.39583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1066947.300244723</v>
+        <v>1393022.525674542</v>
       </c>
     </row>
     <row r="6">
@@ -10589,28 +10589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>836.524965456361</v>
+        <v>1090.257189625927</v>
       </c>
       <c r="AB6" t="n">
-        <v>1144.570362614254</v>
+        <v>1491.73798559876</v>
       </c>
       <c r="AC6" t="n">
-        <v>1035.334173620942</v>
+        <v>1349.368605920626</v>
       </c>
       <c r="AD6" t="n">
-        <v>836524.965456361</v>
+        <v>1090257.189625927</v>
       </c>
       <c r="AE6" t="n">
-        <v>1144570.362614254</v>
+        <v>1491737.98559876</v>
       </c>
       <c r="AF6" t="n">
         <v>3.119914733560062e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.35416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1035334.173620942</v>
+        <v>1349368.605920626</v>
       </c>
     </row>
     <row r="7">
@@ -10695,28 +10695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>811.4973243350524</v>
+        <v>1065.195383085837</v>
       </c>
       <c r="AB7" t="n">
-        <v>1110.32643989048</v>
+        <v>1457.447316241738</v>
       </c>
       <c r="AC7" t="n">
-        <v>1004.358442820278</v>
+        <v>1318.350589919781</v>
       </c>
       <c r="AD7" t="n">
-        <v>811497.3243350524</v>
+        <v>1065195.383085837</v>
       </c>
       <c r="AE7" t="n">
-        <v>1110326.43989048</v>
+        <v>1457447.316241738</v>
       </c>
       <c r="AF7" t="n">
         <v>3.177506343835221e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1004358.442820278</v>
+        <v>1318350.589919782</v>
       </c>
     </row>
     <row r="8">
@@ -10801,28 +10801,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>788.0207488924721</v>
+        <v>1041.786127450961</v>
       </c>
       <c r="AB8" t="n">
-        <v>1078.20475365653</v>
+        <v>1425.417739938629</v>
       </c>
       <c r="AC8" t="n">
-        <v>975.3024052374258</v>
+        <v>1289.377871425249</v>
       </c>
       <c r="AD8" t="n">
-        <v>788020.748892472</v>
+        <v>1041786.127450961</v>
       </c>
       <c r="AE8" t="n">
-        <v>1078204.75365653</v>
+        <v>1425417.739938629</v>
       </c>
       <c r="AF8" t="n">
         <v>3.217746635630044e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>975302.4052374258</v>
+        <v>1289377.871425249</v>
       </c>
     </row>
     <row r="9">
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>776.0523511948703</v>
+        <v>1020.021740387665</v>
       </c>
       <c r="AB9" t="n">
-        <v>1061.82906391823</v>
+        <v>1395.638745381636</v>
       </c>
       <c r="AC9" t="n">
-        <v>960.4895883443244</v>
+        <v>1262.440942313694</v>
       </c>
       <c r="AD9" t="n">
-        <v>776052.3511948703</v>
+        <v>1020021.740387665</v>
       </c>
       <c r="AE9" t="n">
-        <v>1061829.06391823</v>
+        <v>1395638.745381636</v>
       </c>
       <c r="AF9" t="n">
         <v>3.244573496826593e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>960489.5883443244</v>
+        <v>1262440.942313693</v>
       </c>
     </row>
     <row r="10">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>772.1798171593196</v>
+        <v>1016.149206352114</v>
       </c>
       <c r="AB10" t="n">
-        <v>1056.530492006645</v>
+        <v>1390.340173470051</v>
       </c>
       <c r="AC10" t="n">
-        <v>955.6967046993889</v>
+        <v>1257.648058668758</v>
       </c>
       <c r="AD10" t="n">
-        <v>772179.8171593195</v>
+        <v>1016149.206352114</v>
       </c>
       <c r="AE10" t="n">
-        <v>1056530.492006645</v>
+        <v>1390340.173470051</v>
       </c>
       <c r="AF10" t="n">
         <v>3.251464800620201e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.27083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>955696.7046993888</v>
+        <v>1257648.058668758</v>
       </c>
     </row>
     <row r="11">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>773.4111356486742</v>
+        <v>1017.380524841469</v>
       </c>
       <c r="AB11" t="n">
-        <v>1058.215236285718</v>
+        <v>1392.024917749124</v>
       </c>
       <c r="AC11" t="n">
-        <v>957.2206593490206</v>
+        <v>1259.17201331839</v>
       </c>
       <c r="AD11" t="n">
-        <v>773411.1356486742</v>
+        <v>1017380.524841469</v>
       </c>
       <c r="AE11" t="n">
-        <v>1058215.236285718</v>
+        <v>1392024.917749124</v>
       </c>
       <c r="AF11" t="n">
         <v>3.251157153129415e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.296875</v>
       </c>
       <c r="AH11" t="n">
-        <v>957220.6593490206</v>
+        <v>1259172.01331839</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>930.5378784851046</v>
+        <v>1225.514229505226</v>
       </c>
       <c r="AB2" t="n">
-        <v>1273.202977777184</v>
+        <v>1676.802634681079</v>
       </c>
       <c r="AC2" t="n">
-        <v>1151.690272529731</v>
+        <v>1516.770944634395</v>
       </c>
       <c r="AD2" t="n">
-        <v>930537.8784851045</v>
+        <v>1225514.229505226</v>
       </c>
       <c r="AE2" t="n">
-        <v>1273202.977777184</v>
+        <v>1676802.634681079</v>
       </c>
       <c r="AF2" t="n">
         <v>3.307162720189336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1151690.272529731</v>
+        <v>1516770.944634395</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>771.1984869327511</v>
+        <v>1028.095869996049</v>
       </c>
       <c r="AB3" t="n">
-        <v>1055.18779269742</v>
+        <v>1406.686125717285</v>
       </c>
       <c r="AC3" t="n">
-        <v>954.4821507277459</v>
+        <v>1272.433976175204</v>
       </c>
       <c r="AD3" t="n">
-        <v>771198.486932751</v>
+        <v>1028095.869996049</v>
       </c>
       <c r="AE3" t="n">
-        <v>1055187.79269742</v>
+        <v>1406686.125717285</v>
       </c>
       <c r="AF3" t="n">
         <v>3.829834801260196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.16145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>954482.1507277458</v>
+        <v>1272433.976175204</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>712.9217119600131</v>
+        <v>960.3666728418092</v>
       </c>
       <c r="AB4" t="n">
-        <v>975.4509381898595</v>
+        <v>1314.016050169559</v>
       </c>
       <c r="AC4" t="n">
-        <v>882.355269703009</v>
+        <v>1188.608202574484</v>
       </c>
       <c r="AD4" t="n">
-        <v>712921.7119600131</v>
+        <v>960366.6728418092</v>
       </c>
       <c r="AE4" t="n">
-        <v>975450.9381898595</v>
+        <v>1314016.050169559</v>
       </c>
       <c r="AF4" t="n">
         <v>4.006794661992582e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>882355.2697030089</v>
+        <v>1188608.202574485</v>
       </c>
     </row>
     <row r="5">
@@ -11734,28 +11734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>698.4367167652109</v>
+        <v>936.3287812688775</v>
       </c>
       <c r="AB5" t="n">
-        <v>955.631928731444</v>
+        <v>1281.126346442542</v>
       </c>
       <c r="AC5" t="n">
-        <v>864.4277586911498</v>
+        <v>1158.857446010185</v>
       </c>
       <c r="AD5" t="n">
-        <v>698436.716765211</v>
+        <v>936328.7812688774</v>
       </c>
       <c r="AE5" t="n">
-        <v>955631.9287314439</v>
+        <v>1281126.346442542</v>
       </c>
       <c r="AF5" t="n">
         <v>4.070997264260898e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>864427.7586911499</v>
+        <v>1158857.446010185</v>
       </c>
     </row>
   </sheetData>
@@ -12031,28 +12031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>790.3179308207273</v>
+        <v>1062.876667673923</v>
       </c>
       <c r="AB2" t="n">
-        <v>1081.347859315283</v>
+        <v>1454.274747520653</v>
       </c>
       <c r="AC2" t="n">
-        <v>978.1455373034838</v>
+        <v>1315.480806704708</v>
       </c>
       <c r="AD2" t="n">
-        <v>790317.9308207273</v>
+        <v>1062876.667673923</v>
       </c>
       <c r="AE2" t="n">
-        <v>1081347.859315283</v>
+        <v>1454274.747520653</v>
       </c>
       <c r="AF2" t="n">
         <v>4.078562624409824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.67708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>978145.5373034838</v>
+        <v>1315480.806704708</v>
       </c>
     </row>
     <row r="3">
@@ -12137,28 +12137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.0610248940008</v>
+        <v>918.4169616412562</v>
       </c>
       <c r="AB3" t="n">
-        <v>922.2800317336254</v>
+        <v>1256.618604614319</v>
       </c>
       <c r="AC3" t="n">
-        <v>834.2589199331217</v>
+        <v>1136.688688665217</v>
       </c>
       <c r="AD3" t="n">
-        <v>674061.0248940007</v>
+        <v>918416.9616412562</v>
       </c>
       <c r="AE3" t="n">
-        <v>922280.0317336253</v>
+        <v>1256618.604614319</v>
       </c>
       <c r="AF3" t="n">
         <v>4.567079566784389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.73958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>834258.9199331217</v>
+        <v>1136688.688665217</v>
       </c>
     </row>
     <row r="4">
@@ -12243,28 +12243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>666.1191809282492</v>
+        <v>901.0410299179342</v>
       </c>
       <c r="AB4" t="n">
-        <v>911.4136504502561</v>
+        <v>1232.844088258464</v>
       </c>
       <c r="AC4" t="n">
-        <v>824.4296108283752</v>
+        <v>1115.183178782621</v>
       </c>
       <c r="AD4" t="n">
-        <v>666119.1809282491</v>
+        <v>901041.0299179342</v>
       </c>
       <c r="AE4" t="n">
-        <v>911413.6504502561</v>
+        <v>1232844.088258464</v>
       </c>
       <c r="AF4" t="n">
         <v>4.618975224829893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.16666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>824429.6108283752</v>
+        <v>1115183.178782621</v>
       </c>
     </row>
   </sheetData>
@@ -21889,28 +21889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>700.2018460403252</v>
+        <v>951.4288008981569</v>
       </c>
       <c r="AB2" t="n">
-        <v>958.0470564776631</v>
+        <v>1301.786859465172</v>
       </c>
       <c r="AC2" t="n">
-        <v>866.6123900349231</v>
+        <v>1177.546148667148</v>
       </c>
       <c r="AD2" t="n">
-        <v>700201.8460403252</v>
+        <v>951428.8008981568</v>
       </c>
       <c r="AE2" t="n">
-        <v>958047.0564776631</v>
+        <v>1301786.859465173</v>
       </c>
       <c r="AF2" t="n">
         <v>4.838795811675261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.70833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>866612.3900349231</v>
+        <v>1177546.148667148</v>
       </c>
     </row>
     <row r="3">
@@ -21995,28 +21995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.7244444987581</v>
+        <v>885.6112665201564</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.7721840813836</v>
+        <v>1211.732405264506</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.7125230041798</v>
+        <v>1096.086365183173</v>
       </c>
       <c r="AD3" t="n">
-        <v>643724.4444987581</v>
+        <v>885611.2665201564</v>
       </c>
       <c r="AE3" t="n">
-        <v>880772.1840813835</v>
+        <v>1211732.405264506</v>
       </c>
       <c r="AF3" t="n">
         <v>5.11893662182488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>796712.5230041798</v>
+        <v>1096086.365183173</v>
       </c>
     </row>
   </sheetData>
@@ -22292,28 +22292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>627.584141465333</v>
+        <v>873.728293255654</v>
       </c>
       <c r="AB2" t="n">
-        <v>858.6883094111364</v>
+        <v>1195.473597004232</v>
       </c>
       <c r="AC2" t="n">
-        <v>776.7363023375483</v>
+        <v>1081.379274763879</v>
       </c>
       <c r="AD2" t="n">
-        <v>627584.1414653331</v>
+        <v>873728.2932556539</v>
       </c>
       <c r="AE2" t="n">
-        <v>858688.3094111364</v>
+        <v>1195473.597004232</v>
       </c>
       <c r="AF2" t="n">
         <v>6.402602412904959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.68229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>776736.3023375483</v>
+        <v>1081379.274763879</v>
       </c>
     </row>
   </sheetData>
@@ -22589,28 +22589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1075.723699084334</v>
+        <v>1402.648679555672</v>
       </c>
       <c r="AB2" t="n">
-        <v>1471.852622667402</v>
+        <v>1919.165803860506</v>
       </c>
       <c r="AC2" t="n">
-        <v>1331.381074118155</v>
+        <v>1736.003313106182</v>
       </c>
       <c r="AD2" t="n">
-        <v>1075723.699084334</v>
+        <v>1402648.679555672</v>
       </c>
       <c r="AE2" t="n">
-        <v>1471852.622667402</v>
+        <v>1919165.803860506</v>
       </c>
       <c r="AF2" t="n">
         <v>2.772052769256909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1331381.074118155</v>
+        <v>1736003.313106182</v>
       </c>
     </row>
     <row r="3">
@@ -22695,28 +22695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>854.8334875491261</v>
+        <v>1124.171507512427</v>
       </c>
       <c r="AB3" t="n">
-        <v>1169.620890256565</v>
+        <v>1538.141051525178</v>
       </c>
       <c r="AC3" t="n">
-        <v>1057.993914063707</v>
+        <v>1391.343028362139</v>
       </c>
       <c r="AD3" t="n">
-        <v>854833.487549126</v>
+        <v>1124171.507512427</v>
       </c>
       <c r="AE3" t="n">
-        <v>1169620.890256565</v>
+        <v>1538141.051525178</v>
       </c>
       <c r="AF3" t="n">
         <v>3.315314146496231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.66145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1057993.914063707</v>
+        <v>1391343.028362139</v>
       </c>
     </row>
     <row r="4">
@@ -22801,28 +22801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>788.2359460821566</v>
+        <v>1038.265775853318</v>
       </c>
       <c r="AB4" t="n">
-        <v>1078.499195945286</v>
+        <v>1420.601039575783</v>
       </c>
       <c r="AC4" t="n">
-        <v>975.5687463673958</v>
+        <v>1285.020870184751</v>
       </c>
       <c r="AD4" t="n">
-        <v>788235.9460821566</v>
+        <v>1038265.775853318</v>
       </c>
       <c r="AE4" t="n">
-        <v>1078499.195945286</v>
+        <v>1420601.039575783</v>
       </c>
       <c r="AF4" t="n">
         <v>3.524448202171886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.43229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>975568.7463673957</v>
+        <v>1285020.870184751</v>
       </c>
     </row>
     <row r="5">
@@ -22907,28 +22907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>757.7125734688829</v>
+        <v>998.1561334666084</v>
       </c>
       <c r="AB5" t="n">
-        <v>1036.735770939644</v>
+        <v>1365.72125734975</v>
       </c>
       <c r="AC5" t="n">
-        <v>937.7911640289566</v>
+        <v>1235.378737350113</v>
       </c>
       <c r="AD5" t="n">
-        <v>757712.5734688828</v>
+        <v>998156.1334666084</v>
       </c>
       <c r="AE5" t="n">
-        <v>1036735.770939644</v>
+        <v>1365721.25734975</v>
       </c>
       <c r="AF5" t="n">
         <v>3.617288411912759e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>937791.1640289566</v>
+        <v>1235378.737350113</v>
       </c>
     </row>
     <row r="6">
@@ -23013,28 +23013,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>730.2029050232387</v>
+        <v>970.6122996021833</v>
       </c>
       <c r="AB6" t="n">
-        <v>999.0958289313958</v>
+        <v>1328.034568708254</v>
       </c>
       <c r="AC6" t="n">
-        <v>903.7435252579854</v>
+        <v>1201.288813378962</v>
       </c>
       <c r="AD6" t="n">
-        <v>730202.9050232387</v>
+        <v>970612.2996021833</v>
       </c>
       <c r="AE6" t="n">
-        <v>999095.8289313958</v>
+        <v>1328034.568708254</v>
       </c>
       <c r="AF6" t="n">
         <v>3.683195217478431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.21875</v>
       </c>
       <c r="AH6" t="n">
-        <v>903743.5252579855</v>
+        <v>1201288.813378962</v>
       </c>
     </row>
     <row r="7">
@@ -23119,28 +23119,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>717.5478118612189</v>
+        <v>967.5766306025234</v>
       </c>
       <c r="AB7" t="n">
-        <v>981.7805721638131</v>
+        <v>1323.881032458655</v>
       </c>
       <c r="AC7" t="n">
-        <v>888.0808122941854</v>
+        <v>1197.5316847995</v>
       </c>
       <c r="AD7" t="n">
-        <v>717547.8118612189</v>
+        <v>967576.6306025235</v>
       </c>
       <c r="AE7" t="n">
-        <v>981780.572163813</v>
+        <v>1323881.032458656</v>
       </c>
       <c r="AF7" t="n">
         <v>3.698993364113497e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>888080.8122941854</v>
+        <v>1197531.6847995</v>
       </c>
     </row>
   </sheetData>
@@ -23416,28 +23416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1290.433433063668</v>
+        <v>1660.311430939802</v>
       </c>
       <c r="AB2" t="n">
-        <v>1765.627953022866</v>
+        <v>2271.711347582602</v>
       </c>
       <c r="AC2" t="n">
-        <v>1597.118899260759</v>
+        <v>2054.902404936219</v>
       </c>
       <c r="AD2" t="n">
-        <v>1290433.433063668</v>
+        <v>1660311.430939802</v>
       </c>
       <c r="AE2" t="n">
-        <v>1765627.953022866</v>
+        <v>2271711.347582602</v>
       </c>
       <c r="AF2" t="n">
         <v>2.247298879850336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1597118.899260759</v>
+        <v>2054902.404936219</v>
       </c>
     </row>
     <row r="3">
@@ -23522,28 +23522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>980.5771574999487</v>
+        <v>1272.53137064348</v>
       </c>
       <c r="AB3" t="n">
-        <v>1341.668926902481</v>
+        <v>1741.133561436312</v>
       </c>
       <c r="AC3" t="n">
-        <v>1213.621927563073</v>
+        <v>1574.962218029131</v>
       </c>
       <c r="AD3" t="n">
-        <v>980577.1574999487</v>
+        <v>1272531.37064348</v>
       </c>
       <c r="AE3" t="n">
-        <v>1341668.92690248</v>
+        <v>1741133.561436312</v>
       </c>
       <c r="AF3" t="n">
         <v>2.814406035057699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.17708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1213621.927563073</v>
+        <v>1574962.218029131</v>
       </c>
     </row>
     <row r="4">
@@ -23628,28 +23628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>882.1435636595944</v>
+        <v>1154.692439024911</v>
       </c>
       <c r="AB4" t="n">
-        <v>1206.987741226432</v>
+        <v>1579.901136509027</v>
       </c>
       <c r="AC4" t="n">
-        <v>1091.794525221715</v>
+        <v>1429.117589445776</v>
       </c>
       <c r="AD4" t="n">
-        <v>882143.5636595944</v>
+        <v>1154692.439024911</v>
       </c>
       <c r="AE4" t="n">
-        <v>1206987.741226432</v>
+        <v>1579901.136509027</v>
       </c>
       <c r="AF4" t="n">
         <v>3.035702340133627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.95833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1091794.525221715</v>
+        <v>1429117.589445776</v>
       </c>
     </row>
     <row r="5">
@@ -23734,28 +23734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>831.4883732693663</v>
+        <v>1094.300919841723</v>
       </c>
       <c r="AB5" t="n">
-        <v>1137.679074985243</v>
+        <v>1497.270795676799</v>
       </c>
       <c r="AC5" t="n">
-        <v>1029.100580811261</v>
+        <v>1354.373372370164</v>
       </c>
       <c r="AD5" t="n">
-        <v>831488.3732693663</v>
+        <v>1094300.919841723</v>
       </c>
       <c r="AE5" t="n">
-        <v>1137679.074985243</v>
+        <v>1497270.795676799</v>
       </c>
       <c r="AF5" t="n">
         <v>3.172794111962419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.61458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1029100.580811261</v>
+        <v>1354373.372370164</v>
       </c>
     </row>
     <row r="6">
@@ -23840,28 +23840,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>809.1396699941014</v>
+        <v>1062.250053192279</v>
       </c>
       <c r="AB6" t="n">
-        <v>1107.100593208822</v>
+        <v>1453.417385942587</v>
       </c>
       <c r="AC6" t="n">
-        <v>1001.440466418413</v>
+        <v>1314.705270512339</v>
       </c>
       <c r="AD6" t="n">
-        <v>809139.6699941014</v>
+        <v>1062250.053192279</v>
       </c>
       <c r="AE6" t="n">
-        <v>1107100.593208822</v>
+        <v>1453417.385942587</v>
       </c>
       <c r="AF6" t="n">
         <v>3.224612286268348e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.78125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1001440.466418413</v>
+        <v>1314705.270512338</v>
       </c>
     </row>
     <row r="7">
@@ -23946,28 +23946,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>794.5169764956013</v>
+        <v>1037.857876511895</v>
       </c>
       <c r="AB7" t="n">
-        <v>1087.093178856466</v>
+        <v>1420.042933701598</v>
       </c>
       <c r="AC7" t="n">
-        <v>983.3425316112638</v>
+        <v>1284.516029151892</v>
       </c>
       <c r="AD7" t="n">
-        <v>794516.9764956012</v>
+        <v>1037857.876511895</v>
       </c>
       <c r="AE7" t="n">
-        <v>1087093.178856466</v>
+        <v>1420042.933701598</v>
       </c>
       <c r="AF7" t="n">
         <v>3.271839772802028e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.05208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>983342.5316112638</v>
+        <v>1284516.029151892</v>
       </c>
     </row>
     <row r="8">
@@ -24052,28 +24052,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>771.8355720244134</v>
+        <v>1024.91178980381</v>
       </c>
       <c r="AB8" t="n">
-        <v>1056.059480626043</v>
+        <v>1402.32952672656</v>
       </c>
       <c r="AC8" t="n">
-        <v>955.270645983883</v>
+        <v>1268.493164877628</v>
       </c>
       <c r="AD8" t="n">
-        <v>771835.5720244134</v>
+        <v>1024911.78980381</v>
       </c>
       <c r="AE8" t="n">
-        <v>1056059.480626043</v>
+        <v>1402329.52672656</v>
       </c>
       <c r="AF8" t="n">
         <v>3.303785928806169e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.55729166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>955270.6459838831</v>
+        <v>1268493.164877628</v>
       </c>
     </row>
     <row r="9">
@@ -24158,28 +24158,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>763.6746184107968</v>
+        <v>1006.98135300831</v>
       </c>
       <c r="AB9" t="n">
-        <v>1044.89330385603</v>
+        <v>1377.796312067914</v>
       </c>
       <c r="AC9" t="n">
-        <v>945.1701534529722</v>
+        <v>1246.30136579342</v>
       </c>
       <c r="AD9" t="n">
-        <v>763674.6184107969</v>
+        <v>1006981.35300831</v>
       </c>
       <c r="AE9" t="n">
-        <v>1044893.30385603</v>
+        <v>1377796.312067914</v>
       </c>
       <c r="AF9" t="n">
         <v>3.327745545809275e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.21875</v>
       </c>
       <c r="AH9" t="n">
-        <v>945170.1534529722</v>
+        <v>1246301.36579342</v>
       </c>
     </row>
   </sheetData>
@@ -24455,28 +24455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>644.6711777999853</v>
+        <v>906.3959385290966</v>
       </c>
       <c r="AB2" t="n">
-        <v>882.0675463510483</v>
+        <v>1240.170910462152</v>
       </c>
       <c r="AC2" t="n">
-        <v>797.8842577168803</v>
+        <v>1121.810739358448</v>
       </c>
       <c r="AD2" t="n">
-        <v>644671.1777999854</v>
+        <v>906395.9385290967</v>
       </c>
       <c r="AE2" t="n">
-        <v>882067.5463510484</v>
+        <v>1240170.910462152</v>
       </c>
       <c r="AF2" t="n">
         <v>7.057681224852002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.30208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>797884.2577168803</v>
+        <v>1121810.739358448</v>
       </c>
     </row>
   </sheetData>
@@ -24752,28 +24752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>839.8497041428792</v>
+        <v>1113.598346871315</v>
       </c>
       <c r="AB2" t="n">
-        <v>1149.119416762267</v>
+        <v>1523.674386681083</v>
       </c>
       <c r="AC2" t="n">
-        <v>1039.449072425707</v>
+        <v>1378.257041706673</v>
       </c>
       <c r="AD2" t="n">
-        <v>839849.7041428792</v>
+        <v>1113598.346871316</v>
       </c>
       <c r="AE2" t="n">
-        <v>1149119.416762267</v>
+        <v>1523674.386681083</v>
       </c>
       <c r="AF2" t="n">
         <v>3.785521973866898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.21354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1039449.072425707</v>
+        <v>1378257.041706673</v>
       </c>
     </row>
     <row r="3">
@@ -24858,28 +24858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>707.7369249140463</v>
+        <v>953.2235638686433</v>
       </c>
       <c r="AB3" t="n">
-        <v>968.3568838169067</v>
+        <v>1304.242533340747</v>
       </c>
       <c r="AC3" t="n">
-        <v>875.9382619228428</v>
+        <v>1179.767456474597</v>
       </c>
       <c r="AD3" t="n">
-        <v>707736.9249140463</v>
+        <v>953223.5638686433</v>
       </c>
       <c r="AE3" t="n">
-        <v>968356.8838169067</v>
+        <v>1304242.533340747</v>
       </c>
       <c r="AF3" t="n">
         <v>4.281148054683193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.59895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>875938.2619228428</v>
+        <v>1179767.456474597</v>
       </c>
     </row>
     <row r="4">
@@ -24964,28 +24964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.4848290677345</v>
+        <v>913.4610403541125</v>
       </c>
       <c r="AB4" t="n">
-        <v>926.9646316517077</v>
+        <v>1249.837694469433</v>
       </c>
       <c r="AC4" t="n">
-        <v>838.4964282098995</v>
+        <v>1130.554939067491</v>
       </c>
       <c r="AD4" t="n">
-        <v>677484.8290677345</v>
+        <v>913461.0403541125</v>
       </c>
       <c r="AE4" t="n">
-        <v>926964.6316517077</v>
+        <v>1249837.694469433</v>
       </c>
       <c r="AF4" t="n">
         <v>4.412145047011715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>838496.4282098995</v>
+        <v>1130554.939067491</v>
       </c>
     </row>
     <row r="5">
@@ -25070,28 +25070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>678.7822844915024</v>
+        <v>914.7584957778805</v>
       </c>
       <c r="AB5" t="n">
-        <v>928.7398674022004</v>
+        <v>1251.612930219926</v>
       </c>
       <c r="AC5" t="n">
-        <v>840.1022379519242</v>
+        <v>1132.160748809516</v>
       </c>
       <c r="AD5" t="n">
-        <v>678782.2844915024</v>
+        <v>914758.4957778805</v>
       </c>
       <c r="AE5" t="n">
-        <v>928739.8674022004</v>
+        <v>1251612.930219926</v>
       </c>
       <c r="AF5" t="n">
         <v>4.411812356237547e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>840102.2379519242</v>
+        <v>1132160.748809516</v>
       </c>
     </row>
   </sheetData>
@@ -25367,28 +25367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>981.7202616158263</v>
+        <v>1287.34294534247</v>
       </c>
       <c r="AB2" t="n">
-        <v>1343.232972384019</v>
+        <v>1761.399411380028</v>
       </c>
       <c r="AC2" t="n">
-        <v>1215.036702739005</v>
+        <v>1593.293923697518</v>
       </c>
       <c r="AD2" t="n">
-        <v>981720.2616158263</v>
+        <v>1287342.94534247</v>
       </c>
       <c r="AE2" t="n">
-        <v>1343232.972384019</v>
+        <v>1761399.411380028</v>
       </c>
       <c r="AF2" t="n">
         <v>3.107785282729472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.05729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1215036.702739005</v>
+        <v>1593293.923697518</v>
       </c>
     </row>
     <row r="3">
@@ -25473,28 +25473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>802.9884506220803</v>
+        <v>1060.870560021894</v>
       </c>
       <c r="AB3" t="n">
-        <v>1098.684223491377</v>
+        <v>1451.529902527923</v>
       </c>
       <c r="AC3" t="n">
-        <v>993.8273432143515</v>
+        <v>1312.997925865671</v>
       </c>
       <c r="AD3" t="n">
-        <v>802988.4506220804</v>
+        <v>1060870.560021894</v>
       </c>
       <c r="AE3" t="n">
-        <v>1098684.223491377</v>
+        <v>1451529.902527923</v>
       </c>
       <c r="AF3" t="n">
         <v>3.638129881772099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.02083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>993827.3432143515</v>
+        <v>1312997.925865671</v>
       </c>
     </row>
     <row r="4">
@@ -25579,28 +25579,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>726.8517662838867</v>
+        <v>975.212082123502</v>
       </c>
       <c r="AB4" t="n">
-        <v>994.5106530664074</v>
+        <v>1334.328194082005</v>
       </c>
       <c r="AC4" t="n">
-        <v>899.5959521422167</v>
+        <v>1206.981783980201</v>
       </c>
       <c r="AD4" t="n">
-        <v>726851.7662838867</v>
+        <v>975212.082123502</v>
       </c>
       <c r="AE4" t="n">
-        <v>994510.6530664074</v>
+        <v>1334328.194082005</v>
       </c>
       <c r="AF4" t="n">
         <v>3.862383958842491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>899595.9521422167</v>
+        <v>1206981.783980201</v>
       </c>
     </row>
     <row r="5">
@@ -25685,28 +25685,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>710.3624516861192</v>
+        <v>949.1346651876886</v>
       </c>
       <c r="AB5" t="n">
-        <v>971.9492453765232</v>
+        <v>1298.647921775985</v>
       </c>
       <c r="AC5" t="n">
-        <v>879.1877735371204</v>
+        <v>1174.706786785491</v>
       </c>
       <c r="AD5" t="n">
-        <v>710362.4516861192</v>
+        <v>949134.6651876885</v>
       </c>
       <c r="AE5" t="n">
-        <v>971949.2453765232</v>
+        <v>1298647.921775986</v>
       </c>
       <c r="AF5" t="n">
         <v>3.9277049945017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.11458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>879187.7735371204</v>
+        <v>1174706.786785491</v>
       </c>
     </row>
     <row r="6">
@@ -25791,28 +25791,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>709.1533989771</v>
+        <v>947.9256124786694</v>
       </c>
       <c r="AB6" t="n">
-        <v>970.2949661204024</v>
+        <v>1296.993642519865</v>
       </c>
       <c r="AC6" t="n">
-        <v>877.6913763714082</v>
+        <v>1173.210389619778</v>
       </c>
       <c r="AD6" t="n">
-        <v>709153.3989771</v>
+        <v>947925.6124786695</v>
       </c>
       <c r="AE6" t="n">
-        <v>970294.9661204023</v>
+        <v>1296993.642519865</v>
       </c>
       <c r="AF6" t="n">
         <v>3.929704618042288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>877691.3763714082</v>
+        <v>1173210.389619778</v>
       </c>
     </row>
   </sheetData>
